--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="227">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://ltsi.univ-rennes.fr/CodeSystem/snomedct</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -157,7 +157,7 @@
     <t>parent</t>
   </si>
   <si>
-    <t>http://.........?</t>
+    <t>http://snomed.info/field/Concept.parent</t>
   </si>
   <si>
     <t>A SNOMED CT concept id that has the target of a direct is-a relationship from the concept</t>
@@ -166,6 +166,9 @@
     <t>child</t>
   </si>
   <si>
+    <t>http://snomed.info/field/Concept.child</t>
+  </si>
+  <si>
     <t>A SNOMED CT concept id that has a direct is-a relationship to the concept</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>normalForm</t>
   </si>
   <si>
+    <t>http://snomed.info/field/Concept.normalForm</t>
+  </si>
+  <si>
     <t>Generated Normal form expression for the provided code or expression, with terms</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>normalFormTerse</t>
   </si>
   <si>
+    <t>http://snomed.info/field/Concept.normalFormTerset</t>
+  </si>
+  <si>
     <t>Generated Normal form expression for the provided code or expression, conceptIds only</t>
   </si>
   <si>
@@ -359,6 +368,9 @@
   </si>
   <si>
     <t>http://snomed.info/id/363698007</t>
+  </si>
+  <si>
+    <t>Direct device</t>
   </si>
   <si>
     <t>http://snomed.info/id/363699004</t>
@@ -1058,10 +1070,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>45</v>
@@ -1069,13 +1081,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>45</v>
@@ -1083,38 +1095,38 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1123,10 +1135,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1135,10 +1147,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1147,10 +1159,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1159,10 +1171,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1171,10 +1183,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -1183,10 +1195,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -1195,10 +1207,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -1207,10 +1219,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -1219,10 +1231,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -1231,10 +1243,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -1243,10 +1255,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -1255,10 +1267,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -1267,10 +1279,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -1279,10 +1291,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -1291,10 +1303,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -1303,10 +1315,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -1315,10 +1327,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -1327,10 +1339,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -1339,10 +1351,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -1351,10 +1363,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -1363,10 +1375,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -1375,10 +1387,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -1387,10 +1399,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -1399,10 +1411,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -1411,10 +1423,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -1423,10 +1435,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -1435,10 +1447,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -1447,10 +1459,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -1459,10 +1471,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -1471,10 +1483,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -1483,10 +1495,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -1495,10 +1507,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -1507,10 +1519,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -1519,10 +1531,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -1531,10 +1543,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -1543,10 +1555,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -1555,10 +1567,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -1567,10 +1579,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -1579,10 +1591,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -1594,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -1603,10 +1615,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -1615,10 +1627,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -1627,10 +1639,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -1639,10 +1651,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -1651,10 +1663,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -1663,10 +1675,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -1675,10 +1687,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -1687,10 +1699,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -1699,10 +1711,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -1711,10 +1723,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -1723,10 +1735,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -1735,10 +1747,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -1747,10 +1759,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -1759,10 +1771,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -1771,10 +1783,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -1783,10 +1795,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -1795,10 +1807,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -1807,10 +1819,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -1819,10 +1831,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -1831,10 +1843,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -1843,10 +1855,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -1855,10 +1867,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -1867,10 +1879,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -1879,10 +1891,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -1891,10 +1903,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -1903,10 +1915,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -1915,10 +1927,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -1927,10 +1939,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -1939,10 +1951,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -1951,10 +1963,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -1963,10 +1975,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -1975,10 +1987,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -1987,10 +1999,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -1999,10 +2011,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -2011,10 +2023,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -2023,10 +2035,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -2054,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -2062,44 +2074,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SNOMED_CT</t>
+    <t>SNOMEDCT</t>
   </si>
   <si>
     <t>Title</t>
@@ -49,48 +49,51 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-06-03T13:43:08+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SNOMED CT is the most comprehensive and precise clinical health terminology product in the world, owned and distributed around the world by The International Health Terminology Standards Development Organisation (IHTSDO).</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-06-03T12:03:22+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>SNOMED CT is the most comprehensive and precise clinical health terminology product in the world, owned and distributed around the world by The International Health Terminology Standards Development Organisation (IHTSDO).</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>Compositional</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Version Needed?</t>
@@ -943,29 +943,29 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-snomedct.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
